--- a/rozpočet.xlsx
+++ b/rozpočet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a096a757e0af4ff2/Škola/Maturitni-prace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_AD4D80C4656A4B7AC02E74F8FBDC40F45BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F6E774E-84A8-46D0-A4F8-B595E340A3CF}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_AD4D80C4656A4B7AC02E74F8FBDC40F45BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E84CAD-587A-472F-8B9B-67FB720F58D4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>router</t>
   </si>
@@ -78,6 +78,114 @@
   </si>
   <si>
     <t>meteostanice</t>
+  </si>
+  <si>
+    <t>kabely</t>
+  </si>
+  <si>
+    <t>konektory</t>
+  </si>
+  <si>
+    <t>za metr</t>
+  </si>
+  <si>
+    <t>konektor</t>
+  </si>
+  <si>
+    <t>extender</t>
+  </si>
+  <si>
+    <t>zámek</t>
+  </si>
+  <si>
+    <t>spínač garářových vrat</t>
+  </si>
+  <si>
+    <t>zásuvka</t>
+  </si>
+  <si>
+    <t>termostatická hlavice</t>
+  </si>
+  <si>
+    <t>kamera</t>
+  </si>
+  <si>
+    <t>dveřní senzor</t>
+  </si>
+  <si>
+    <t>kouřový senzor</t>
+  </si>
+  <si>
+    <t>senzor zaplavení</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/tp-link-re315-d6474835.htm</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/reolink-rlc-810a-d6269162.htm#popis</t>
+  </si>
+  <si>
+    <t>Philips HUE - brána</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/philips-hue-bridge-apple-home-kit-d4051889.htm?o=1</t>
+  </si>
+  <si>
+    <t>až 50 žárovek</t>
+  </si>
+  <si>
+    <t>žárovka - HUE</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/philips-hue-white-and-color-ambiance-9w-1100-e27-d6731020.htm</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/iq-tech-smartlife-wl02-wi-fi-senzor-zaplaveni-d5656778.htm</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/immax-neo-bridge-pro-smart-zigbee-3-0-v2-d6242859.htm?o=1</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/immax-neo-smart-termostaticka-hlavice-zigbee-d6778513.htm?o=1</t>
+  </si>
+  <si>
+    <t>čidla - pohybu</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/immax-neo-smart-2x-magneticky-senzor-na-okna-a-dvere-zigbee-3-0-d6555609.htm</t>
+  </si>
+  <si>
+    <t>za 2 ks</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/immax-neo-lite-smart-ovladani-garazovych-vrat-a-automatickych-bran-wifi-d5837167.htm</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/tp-link-tapo-p110-d6788213.htm</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/immax-neo-smart-multi-senzor-4v1-zigbee-3-0-d6310495.htm</t>
+  </si>
+  <si>
+    <t>zigbee</t>
+  </si>
+  <si>
+    <t>HUE</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>ethernet/poe</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/iq-tech-smartlife-sm01-wi-fi-kourovy-senzor-d5656782.htm?o=1</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/yale-linus-smart-lock-d5755047.htm</t>
+  </si>
+  <si>
+    <t>ZIGBEE - bridge</t>
   </si>
 </sst>
 </file>
@@ -413,19 +521,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -436,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -447,7 +557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -458,7 +568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -469,7 +579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -481,7 +591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -492,7 +602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -502,6 +612,213 @@
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>900</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>800</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>500</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>800</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>900</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1500</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>1600</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>600</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>900</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>800</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>6000</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -512,8 +829,20 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{F7D549FD-2EB0-48D3-9826-55ACFF40748A}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{A631CE1A-BB8F-4495-B113-E09BA2CD3FB6}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{1E343A13-B968-4926-935C-2453BB36F752}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{49A8C62E-5A5C-46D1-BE81-E928E89379A2}"/>
+    <hyperlink ref="C11" r:id="rId8" location="popis" xr:uid="{2BC96CC6-F51F-4D9F-BCD5-36242A16FBD2}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{340BE96B-9C16-4A18-91F8-0CBE02FCFFC2}"/>
+    <hyperlink ref="C21" r:id="rId10" xr:uid="{0BD372F9-9E21-40A8-9232-38D31E6E4A12}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{647F6153-41D4-4A53-80B2-21F52E0E338E}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{E5B81C6F-CF77-4223-B9A4-14073AEB9258}"/>
+    <hyperlink ref="C19" r:id="rId13" xr:uid="{87FAAB96-37EC-4A97-8F92-774A5E67576A}"/>
+    <hyperlink ref="C13" r:id="rId14" xr:uid="{6D3BF818-6EE4-4593-B997-2D747E3824EF}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{1F67BC1A-104A-4FAE-920E-B0FE267A2DA4}"/>
+    <hyperlink ref="C12" r:id="rId16" xr:uid="{669207E7-FF15-4F89-B105-A9B761A067B5}"/>
+    <hyperlink ref="C20" r:id="rId17" xr:uid="{D45D5869-9F48-4616-A56F-431187BF4719}"/>
+    <hyperlink ref="C22" r:id="rId18" xr:uid="{B0449892-A0EB-4FE7-89B7-9C783B673473}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>
--- a/rozpočet.xlsx
+++ b/rozpočet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a096a757e0af4ff2/Škola/Maturitni-prace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="11_AD4D80C4656A4B7AC02E74F8FBDC40F45BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E84CAD-587A-472F-8B9B-67FB720F58D4}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="11_AD4D80C4656A4B7AC02E74F8FBDC40F45BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26BC7229-5579-416E-A5B6-C7FE55ACAE66}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="List2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>router</t>
   </si>
@@ -59,15 +60,9 @@
     <t>NAS</t>
   </si>
   <si>
-    <t>https://www.alza.cz/wd-my-cloud-ex2-ultra-6tb-2x-3tb-d4054955.htm</t>
-  </si>
-  <si>
     <t>disky</t>
   </si>
   <si>
-    <t>https://www.i4wifi.cz/cs/158799-pevny-disk-wd-gold-2tb</t>
-  </si>
-  <si>
     <t>hlasový asistent</t>
   </si>
   <si>
@@ -86,12 +81,6 @@
     <t>konektory</t>
   </si>
   <si>
-    <t>za metr</t>
-  </si>
-  <si>
-    <t>konektor</t>
-  </si>
-  <si>
     <t>extender</t>
   </si>
   <si>
@@ -122,9 +111,6 @@
     <t>https://www.alza.cz/tp-link-re315-d6474835.htm</t>
   </si>
   <si>
-    <t>https://www.alza.cz/reolink-rlc-810a-d6269162.htm#popis</t>
-  </si>
-  <si>
     <t>Philips HUE - brána</t>
   </si>
   <si>
@@ -186,13 +172,166 @@
   </si>
   <si>
     <t>ZIGBEE - bridge</t>
+  </si>
+  <si>
+    <t>Zařízení</t>
+  </si>
+  <si>
+    <t>Název zařízení</t>
+  </si>
+  <si>
+    <t>Odkaz na zařízení</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>TP-Link Archer vr2100</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>TP-Link TL-SG108S</t>
+  </si>
+  <si>
+    <t>Cena za jeden ks</t>
+  </si>
+  <si>
+    <t>Cena celkem</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/synology-ds220j-d5788209.htm</t>
+  </si>
+  <si>
+    <t>Synology DS220j</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/wd-red-4tb-d5757222.htm</t>
+  </si>
+  <si>
+    <t>Disky</t>
+  </si>
+  <si>
+    <t>WD Red 4TB</t>
+  </si>
+  <si>
+    <t>Hlasový asistent</t>
+  </si>
+  <si>
+    <t>Nest Hub (2nd gen) Charcoal</t>
+  </si>
+  <si>
+    <t>Meteostanice</t>
+  </si>
+  <si>
+    <t>Netatmo weather station + Rain Gauge</t>
+  </si>
+  <si>
+    <t>Netatmo weather station Anemometer</t>
+  </si>
+  <si>
+    <t>Kabel</t>
+  </si>
+  <si>
+    <t>305 m</t>
+  </si>
+  <si>
+    <t>Datacom drát, CAT5E, UTP, 305m/box</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/kabel-utp-kat-5e-d40039.htm</t>
+  </si>
+  <si>
+    <t>Počet</t>
+  </si>
+  <si>
+    <t>8 Kč za metr</t>
+  </si>
+  <si>
+    <t>Konektor</t>
+  </si>
+  <si>
+    <t>Datacom RJ45, CAT5E, UTP</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/datacom-rj45-cat5e-utp-8p8c-na-licnu-lanko-d301581.htm</t>
+  </si>
+  <si>
+    <t>Kamera</t>
+  </si>
+  <si>
+    <t>https://www.alza.cz/reolink-rlc-810a-d6269162.htm</t>
+  </si>
+  <si>
+    <t>Reolink RLC-810A</t>
+  </si>
+  <si>
+    <t>Spínač garážových vrat</t>
+  </si>
+  <si>
+    <t>Immax NEO LITE Smart Ovládání garážových vrat a automatických bran</t>
+  </si>
+  <si>
+    <t>Zásuvka</t>
+  </si>
+  <si>
+    <t>TP-Link Tapo P110</t>
+  </si>
+  <si>
+    <t>Immax NEO BRIDGE PRO Smart Zigbee 3.0 v2</t>
+  </si>
+  <si>
+    <t>Termostatická hlavice</t>
+  </si>
+  <si>
+    <t>Immax NEO Smart Termostatická hlavice Zigbee</t>
+  </si>
+  <si>
+    <t>Čidlo pohybu</t>
+  </si>
+  <si>
+    <t>Immax NEO Smart Multi senzor 4v1 Zigbee 3.0</t>
+  </si>
+  <si>
+    <t>Philips Hue Bridge 2.0</t>
+  </si>
+  <si>
+    <t>Philips Hue White and Color Ambiance 9W</t>
+  </si>
+  <si>
+    <t>Philips HUE - žárovka</t>
+  </si>
+  <si>
+    <t>Immax NEO Smart 2x magnetický senzor na okna a dveře Zigbee 3.0</t>
+  </si>
+  <si>
+    <t>Dveřní senzory</t>
+  </si>
+  <si>
+    <t>iQtech SmartLife SM01, Wi-Fi kouřový senzor</t>
+  </si>
+  <si>
+    <t>Kouřový senzor</t>
+  </si>
+  <si>
+    <t>Senzor zaplavení</t>
+  </si>
+  <si>
+    <t>Zámek na dveře</t>
+  </si>
+  <si>
+    <t>iQtech SmartLife WL02, Wi-Fi senzor zaplavení</t>
+  </si>
+  <si>
+    <t>Yale Linus zámek Silver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +345,15 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -236,10 +384,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -524,7 +679,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,276 +728,732 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <f>2*2500</f>
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <f>6600+2700</f>
         <v>9300</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>18</v>
+      <c r="C9" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>900</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>5000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>800</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>500</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>800</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>1000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>900</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>1500</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>1600</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>600</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
         <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>900</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>800</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>6000</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{CE387BBC-0B85-4301-8A80-E1E859E1253E}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{80B5D4DB-EA89-46D8-A041-34CB9AB5F2C2}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{DA8E017B-4797-4A33-AB83-0641531483E3}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{F7D549FD-2EB0-48D3-9826-55ACFF40748A}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{A631CE1A-BB8F-4495-B113-E09BA2CD3FB6}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{1E343A13-B968-4926-935C-2453BB36F752}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{49A8C62E-5A5C-46D1-BE81-E928E89379A2}"/>
-    <hyperlink ref="C11" r:id="rId8" location="popis" xr:uid="{2BC96CC6-F51F-4D9F-BCD5-36242A16FBD2}"/>
-    <hyperlink ref="C18" r:id="rId9" xr:uid="{340BE96B-9C16-4A18-91F8-0CBE02FCFFC2}"/>
-    <hyperlink ref="C21" r:id="rId10" xr:uid="{0BD372F9-9E21-40A8-9232-38D31E6E4A12}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{647F6153-41D4-4A53-80B2-21F52E0E338E}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{E5B81C6F-CF77-4223-B9A4-14073AEB9258}"/>
-    <hyperlink ref="C19" r:id="rId13" xr:uid="{87FAAB96-37EC-4A97-8F92-774A5E67576A}"/>
-    <hyperlink ref="C13" r:id="rId14" xr:uid="{6D3BF818-6EE4-4593-B997-2D747E3824EF}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{1F67BC1A-104A-4FAE-920E-B0FE267A2DA4}"/>
-    <hyperlink ref="C12" r:id="rId16" xr:uid="{669207E7-FF15-4F89-B105-A9B761A067B5}"/>
-    <hyperlink ref="C20" r:id="rId17" xr:uid="{D45D5869-9F48-4616-A56F-431187BF4719}"/>
-    <hyperlink ref="C22" r:id="rId18" xr:uid="{B0449892-A0EB-4FE7-89B7-9C783B673473}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{F7D549FD-2EB0-48D3-9826-55ACFF40748A}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{A631CE1A-BB8F-4495-B113-E09BA2CD3FB6}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{1E343A13-B968-4926-935C-2453BB36F752}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{49A8C62E-5A5C-46D1-BE81-E928E89379A2}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{2BC96CC6-F51F-4D9F-BCD5-36242A16FBD2}"/>
+    <hyperlink ref="C18" r:id="rId8" xr:uid="{340BE96B-9C16-4A18-91F8-0CBE02FCFFC2}"/>
+    <hyperlink ref="C21" r:id="rId9" xr:uid="{0BD372F9-9E21-40A8-9232-38D31E6E4A12}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{647F6153-41D4-4A53-80B2-21F52E0E338E}"/>
+    <hyperlink ref="C15" r:id="rId11" xr:uid="{E5B81C6F-CF77-4223-B9A4-14073AEB9258}"/>
+    <hyperlink ref="C19" r:id="rId12" xr:uid="{87FAAB96-37EC-4A97-8F92-774A5E67576A}"/>
+    <hyperlink ref="C13" r:id="rId13" xr:uid="{6D3BF818-6EE4-4593-B997-2D747E3824EF}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{1F67BC1A-104A-4FAE-920E-B0FE267A2DA4}"/>
+    <hyperlink ref="C12" r:id="rId15" xr:uid="{669207E7-FF15-4F89-B105-A9B761A067B5}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{D45D5869-9F48-4616-A56F-431187BF4719}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{B0449892-A0EB-4FE7-89B7-9C783B673473}"/>
+    <hyperlink ref="C4" r:id="rId18" xr:uid="{DA8E017B-4797-4A33-AB83-0641531483E3}"/>
+    <hyperlink ref="C8" r:id="rId19" xr:uid="{A08EF72C-9160-476B-9552-995306234B1E}"/>
+    <hyperlink ref="C9" r:id="rId20" xr:uid="{375307F7-7894-41B8-8863-3E3D2A55A1D9}"/>
+    <hyperlink ref="C17" r:id="rId21" xr:uid="{1FCB006D-F955-445D-923B-C78C7C574DAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId22"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF794CA0-2DF9-47AB-962B-9CD469B33047}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>2500</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>700</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E9" si="0">C3*D3</f>
+        <v>1400</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>7000</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.54</v>
+      </c>
+      <c r="E10" s="3">
+        <f>D10*C10</f>
+        <v>254</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="3">
+        <f>D11*C11</f>
+        <v>25000</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
+        <f>D12*C12</f>
+        <v>800</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>500</v>
+      </c>
+      <c r="E13" s="3">
+        <f>D13*C13</f>
+        <v>5000</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
+        <f>D14*C14</f>
+        <v>800</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="3">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
+        <f>D15*C15</f>
+        <v>15000</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3">
+        <v>900</v>
+      </c>
+      <c r="E16" s="3">
+        <f>D16*C16</f>
+        <v>9000</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
+        <f>D17*C17</f>
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="3">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="3">
+        <f>D18*C18</f>
+        <v>32000</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>300</v>
+      </c>
+      <c r="E19" s="3">
+        <f>D19*C19</f>
+        <v>600</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
+        <f>D20*C20</f>
+        <v>900</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
+        <f>D21*C21</f>
+        <v>800</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="3">
+        <f>D22*C22</f>
+        <v>12000</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <f>SUM(E2:E22)</f>
+        <v>131754</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rozpočet.xlsx
+++ b/rozpočet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a096a757e0af4ff2/Škola/Maturitni-prace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="11_AD4D80C4656A4B7AC02E74F8FBDC40F45BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26BC7229-5579-416E-A5B6-C7FE55ACAE66}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="11_AD4D80C4656A4B7AC02E74F8FBDC40F45BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07D6CCA1-3A55-408C-A374-78C8F41D2FE2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
   <si>
     <t>router</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>Yale Linus zámek Silver</t>
+  </si>
+  <si>
+    <t>Extender</t>
+  </si>
+  <si>
+    <t>TP-Link RE315</t>
   </si>
 </sst>
 </file>
@@ -384,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -395,6 +401,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
@@ -678,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF794CA0-2DF9-47AB-962B-9CD469B33047}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,7 +1084,7 @@
         <v>700</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E9" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E8" si="0">C3*D3</f>
         <v>1400</v>
       </c>
       <c r="F3" s="3"/>
@@ -1138,7 +1147,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1157,7 +1166,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1192,7 +1201,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1205,249 +1214,267 @@
         <v>2.54</v>
       </c>
       <c r="E10" s="3">
-        <f>D10*C10</f>
+        <f t="shared" ref="E10:E23" si="1">D10*C10</f>
         <v>254</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>900</v>
+      </c>
+      <c r="E11" s="4">
+        <v>900</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>5000</v>
       </c>
-      <c r="E11" s="3">
-        <f>D11*C11</f>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
         <v>25000</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <v>800</v>
-      </c>
-      <c r="E12" s="3">
-        <f>D12*C12</f>
-        <v>800</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E13" s="3">
-        <f>D13*C13</f>
-        <v>5000</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E14" s="3">
-        <f>D14*C14</f>
-        <v>800</v>
+        <f t="shared" si="1"/>
+        <v>5000</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" s="3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E15" s="3">
-        <f>D15*C15</f>
-        <v>15000</v>
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C16" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="3">
-        <f>D16*C16</f>
-        <v>9000</v>
+        <f t="shared" si="1"/>
+        <v>15000</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
-        <f>D17*C17</f>
-        <v>1500</v>
+        <f t="shared" si="1"/>
+        <v>9000</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E18" s="3">
-        <f>D18*C18</f>
-        <v>32000</v>
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="E19" s="3">
-        <f>D19*C19</f>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>32000</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
-        <f>D20*C20</f>
-        <v>900</v>
+        <f t="shared" si="1"/>
+        <v>600</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E21" s="3">
-        <f>D21*C21</f>
-        <v>800</v>
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>2</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>6000</v>
       </c>
-      <c r="E22" s="3">
-        <f>D22*C22</f>
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3">
-        <f>SUM(E2:E22)</f>
-        <v>131754</v>
-      </c>
       <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <f>SUM(E2:E23)</f>
+        <v>132654</v>
+      </c>
+      <c r="F24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/rozpočet.xlsx
+++ b/rozpočet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a096a757e0af4ff2/Škola/Maturitni-prace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="11_AD4D80C4656A4B7AC02E74F8FBDC40F45BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07D6CCA1-3A55-408C-A374-78C8F41D2FE2}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="11_AD4D80C4656A4B7AC02E74F8FBDC40F45BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A34EEB2D-0147-483D-B542-19E9F83357A2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
     <sheet name="List2" sheetId="2" r:id="rId2"/>
+    <sheet name="List3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="153">
   <si>
     <t>router</t>
   </si>
@@ -331,13 +332,175 @@
   </si>
   <si>
     <t>TP-Link RE315</t>
+  </si>
+  <si>
+    <t>Technologie</t>
+  </si>
+  <si>
+    <t>Poskytovatel</t>
+  </si>
+  <si>
+    <t>Měsíční paušál</t>
+  </si>
+  <si>
+    <t>DSL</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>T-mobile</t>
+  </si>
+  <si>
+    <t>Vodafone</t>
+  </si>
+  <si>
+    <t>365internet</t>
+  </si>
+  <si>
+    <t>Zřízení služby</t>
+  </si>
+  <si>
+    <t>Název produktu</t>
+  </si>
+  <si>
+    <t>Stříbrný</t>
+  </si>
+  <si>
+    <t>Zlatý</t>
+  </si>
+  <si>
+    <t>Platinový</t>
+  </si>
+  <si>
+    <t>50/5</t>
+  </si>
+  <si>
+    <t>100/20</t>
+  </si>
+  <si>
+    <t>250/25</t>
+  </si>
+  <si>
+    <t>Rychlost Mb/s</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>XXL</t>
+  </si>
+  <si>
+    <t>Optika</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>250/250</t>
+  </si>
+  <si>
+    <t>500/500</t>
+  </si>
+  <si>
+    <t>1000/500</t>
+  </si>
+  <si>
+    <t>není udáno</t>
+  </si>
+  <si>
+    <t>Výběžek.net</t>
+  </si>
+  <si>
+    <t>Základ</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>100/25</t>
+  </si>
+  <si>
+    <t>300/60</t>
+  </si>
+  <si>
+    <t>2XXL</t>
+  </si>
+  <si>
+    <t>4XXL</t>
+  </si>
+  <si>
+    <t>500/50</t>
+  </si>
+  <si>
+    <t>1000/100</t>
+  </si>
+  <si>
+    <t>Wi-Fi</t>
+  </si>
+  <si>
+    <t>Starnet</t>
+  </si>
+  <si>
+    <t>300/100</t>
+  </si>
+  <si>
+    <t>50/20</t>
+  </si>
+  <si>
+    <t>Internet 300M</t>
+  </si>
+  <si>
+    <t>Internet 50M</t>
+  </si>
+  <si>
+    <t>25/5</t>
+  </si>
+  <si>
+    <t>50/10</t>
+  </si>
+  <si>
+    <t>LTE</t>
+  </si>
+  <si>
+    <t>20/5</t>
+  </si>
+  <si>
+    <t>8/4</t>
+  </si>
+  <si>
+    <t>Přenosný interent</t>
+  </si>
+  <si>
+    <t>Nordic telecom</t>
+  </si>
+  <si>
+    <t>LTE mobilní data 4GB</t>
+  </si>
+  <si>
+    <t>LTE mobilní data 8GB</t>
+  </si>
+  <si>
+    <t>Satelitní internet</t>
+  </si>
+  <si>
+    <t>Starlink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +523,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -390,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -402,6 +571,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF794CA0-2DF9-47AB-962B-9CD469B33047}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1147,7 +1322,7 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1166,7 +1341,7 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1483,4 +1658,524 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BE6303-725E-4BC5-9779-05B9C9A14FFB}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="7">
+        <v>99</v>
+      </c>
+      <c r="F2" s="6">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="7">
+        <v>99</v>
+      </c>
+      <c r="F5" s="6">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="7">
+        <v>999</v>
+      </c>
+      <c r="F8" s="6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="6">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="7">
+        <v>700</v>
+      </c>
+      <c r="F14" s="6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="7">
+        <v>999</v>
+      </c>
+      <c r="F17" s="6">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3390</v>
+      </c>
+      <c r="F20" s="6">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="7">
+        <v>700</v>
+      </c>
+      <c r="F22" s="6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="6">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="6">
+        <v>5</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="6">
+        <v>100</v>
+      </c>
+      <c r="E29" s="6">
+        <v>14000</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2600</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E7"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>